--- a/src/main/java/com/qa/guruBank/TestData/FreeCRMData.xlsx
+++ b/src/main/java/com/qa/guruBank/TestData/FreeCRMData.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13800" windowHeight="3075" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13800" windowHeight="3090" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="freeCrmData" sheetId="1" r:id="rId1"/>
     <sheet name="CustomerDetails" sheetId="3" r:id="rId2"/>
     <sheet name="GuruLoginDetails1" sheetId="5" r:id="rId3"/>
-    <sheet name="NewAccount" sheetId="6" r:id="rId4"/>
-    <sheet name="DeleteAcc" sheetId="7" r:id="rId5"/>
-    <sheet name="Deposit" sheetId="8" r:id="rId6"/>
+    <sheet name="Deposit" sheetId="8" r:id="rId4"/>
+    <sheet name="NewAcc1" sheetId="10" r:id="rId5"/>
+    <sheet name="DelAcc" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Deposite</t>
   </si>
   <si>
-    <t>Ramakrishna</t>
-  </si>
-  <si>
-    <t>Ramki@gmail.com</t>
-  </si>
-  <si>
     <t>AccountNo</t>
   </si>
   <si>
@@ -126,15 +120,6 @@
     <t>AnudYgy</t>
   </si>
   <si>
-    <t>Suhas@gmail.com</t>
-  </si>
-  <si>
-    <t>Venkat</t>
-  </si>
-  <si>
-    <t>Vvenki@gmail.com</t>
-  </si>
-  <si>
     <t>suri@124</t>
   </si>
   <si>
@@ -148,6 +133,24 @@
   </si>
   <si>
     <t>BillPay</t>
+  </si>
+  <si>
+    <t>Ramki</t>
+  </si>
+  <si>
+    <t>Suri</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>ramki1@gmail.com</t>
+  </si>
+  <si>
+    <t>suri12@gmail.com</t>
+  </si>
+  <si>
+    <t>Jhon@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -225,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -241,12 +244,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -616,7 +617,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +663,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7">
         <v>30533</v>
@@ -680,10 +681,10 @@
         <v>500051</v>
       </c>
       <c r="G2" s="9">
-        <v>63420</v>
+        <v>64648</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>20</v>
@@ -691,7 +692,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7">
         <v>30534</v>
@@ -709,18 +710,18 @@
         <v>500051</v>
       </c>
       <c r="G3" s="9">
-        <v>63420</v>
+        <v>64649</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7">
         <v>30535</v>
@@ -738,13 +739,13 @@
         <v>500051</v>
       </c>
       <c r="G4" s="9">
-        <v>63420</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>38</v>
+        <v>64610</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +782,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -818,44 +819,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>19097</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>89458</v>
+      </c>
+      <c r="B2" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>30173</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>89459</v>
+      </c>
+      <c r="B3" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>45615</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1000</v>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -865,38 +867,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>89459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>34189</v>
+      </c>
+      <c r="B2" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>62819</v>
+      </c>
+      <c r="B3" s="10">
+        <v>6000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -905,45 +906,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>89458</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>89459</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
+        <v>89666</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qa/guruBank/TestData/FreeCRMData.xlsx
+++ b/src/main/java/com/qa/guruBank/TestData/FreeCRMData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13800" windowHeight="3090" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13800" windowHeight="1875" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="freeCrmData" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Deposit" sheetId="8" r:id="rId4"/>
     <sheet name="NewAcc1" sheetId="10" r:id="rId5"/>
     <sheet name="DelAcc" sheetId="11" r:id="rId6"/>
+    <sheet name="BalEnq" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -151,6 +152,9 @@
   </si>
   <si>
     <t>Jhon@gmail.com</t>
+  </si>
+  <si>
+    <t>Accno</t>
   </si>
 </sst>
 </file>
@@ -617,7 +621,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,10 +871,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +901,22 @@
       </c>
       <c r="B3" s="10">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>60182</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>38278</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -930,4 +950,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>89666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>34189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>